--- a/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Undernourishment.xlsx
+++ b/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Undernourishment.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835"/>
+    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="metadata" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -398,10 +398,10 @@
     <t>IFPRI</t>
   </si>
   <si>
-    <t>DAT-0</t>
-  </si>
-  <si>
     <t>GHI-Undernourishment</t>
+  </si>
+  <si>
+    <t>GHI</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+    <sheetView topLeftCell="A525" workbookViewId="0">
       <selection activeCell="C525" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -8028,8 +8028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8051,7 +8051,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
